--- a/mgo_co/mgo_co_adsorp_energy.xlsx
+++ b/mgo_co/mgo_co_adsorp_energy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hieudinh/Desktop/lee-lab/RIJ/efficient_all_electron_periodic_ftc_method/mgo_co/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2108C8-437A-8A4D-85D2-DC2F433A32FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15DA943-C645-E54B-83CE-D54832462DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62840" yWindow="-100" windowWidth="27060" windowHeight="24100" xr2:uid="{05099615-AB1D-C64A-A59E-9831400A6593}"/>
+    <workbookView xWindow="54260" yWindow="-2920" windowWidth="31500" windowHeight="26660" xr2:uid="{05099615-AB1D-C64A-A59E-9831400A6593}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,13 +496,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>-8917.8479019999995</v>
+        <f>B3-$E3</f>
+        <v>-8917.8479024376993</v>
       </c>
       <c r="C2" s="2">
-        <v>-8922.8849969999992</v>
+        <f t="shared" ref="C2:D2" si="0">C3-$E3</f>
+        <v>-8922.8849656506991</v>
       </c>
       <c r="D2" s="2">
-        <v>-8923.3361160000004</v>
+        <f t="shared" si="0"/>
+        <v>-8923.3361154376998</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -549,15 +552,15 @@
       </c>
       <c r="B4" s="2">
         <f>B2+$E4</f>
-        <v>-8918.0707935094997</v>
+        <v>-8918.0707939471995</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:D4" si="0">C2+$E4</f>
-        <v>-8923.1078885094994</v>
+        <f t="shared" ref="C4:D4" si="1">C2+$E4</f>
+        <v>-8923.1078571601993</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>-8923.5590075095006</v>
+        <f t="shared" si="1"/>
+        <v>-8923.5590069472</v>
       </c>
       <c r="E4" s="2">
         <v>-0.2228915095</v>
@@ -592,13 +595,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>-8804.7379820000006</v>
+        <f>B9-$E9</f>
+        <v>-8804.7379825582993</v>
       </c>
       <c r="C8" s="2">
-        <v>-8809.6441749999994</v>
+        <f t="shared" ref="C8:D8" si="2">C9-$E9</f>
+        <v>-8809.6441755583</v>
       </c>
       <c r="D8" s="2">
-        <v>-8810.0888049999994</v>
+        <f t="shared" si="2"/>
+        <v>-8810.0888045582997</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -624,15 +630,15 @@
       </c>
       <c r="B10">
         <f>B8+$E10</f>
-        <v>-8804.9553469573002</v>
+        <v>-8804.955347515599</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:D10" si="1">C8+$E10</f>
-        <v>-8809.8615399572991</v>
+        <f t="shared" ref="C10:D10" si="3">C8+$E10</f>
+        <v>-8809.8615405155997</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
-        <v>-8810.3061699572991</v>
+        <f t="shared" si="3"/>
+        <v>-8810.3061695155993</v>
       </c>
       <c r="E10" s="2">
         <v>-0.21736495729999999</v>
@@ -660,13 +666,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="2">
-        <v>-113.1042894</v>
+        <f>B15-$E15</f>
+        <v>-113.104289401101</v>
       </c>
       <c r="C14" s="2">
-        <v>-113.23476789999999</v>
+        <f t="shared" ref="C14:D14" si="4">C15-$E15</f>
+        <v>-113.23476790110099</v>
       </c>
       <c r="D14" s="2">
-        <v>-113.241314</v>
+        <f t="shared" si="4"/>
+        <v>-113.24131400110099</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -692,15 +701,15 @@
       </c>
       <c r="B16">
         <f>B14+$E16</f>
-        <v>-113.10429167135432</v>
+        <v>-113.10429167245532</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:D16" si="2">C14+$E16</f>
-        <v>-113.23477017135431</v>
+        <f t="shared" ref="C16:D16" si="5">C14+$E16</f>
+        <v>-113.23477017245531</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
-        <v>-113.24131627135432</v>
+        <f t="shared" si="5"/>
+        <v>-113.24131627245531</v>
       </c>
       <c r="E16" s="2">
         <v>-2.2713543199999999E-6</v>
@@ -737,11 +746,11 @@
         <v>-31.11952640134259</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:D20" si="3">(C3-C9-C15)*$B18</f>
+        <f t="shared" ref="C20:D20" si="6">(C3-C9-C15)*$B18</f>
         <v>-32.147968880414965</v>
       </c>
       <c r="D20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-32.081509601913588</v>
       </c>
     </row>
@@ -751,15 +760,15 @@
       </c>
       <c r="B21">
         <f>(B4-B10-B16)*$B18</f>
-        <v>-29.287139659027709</v>
+        <v>-29.286820135683918</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:D21" si="4">(C4-C10-C16)*$B18</f>
-        <v>-30.399038911108121</v>
+        <f t="shared" ref="C21:D21" si="7">(C4-C10-C16)*$B18</f>
+        <v>-30.315262614756293</v>
       </c>
       <c r="D21">
-        <f t="shared" si="4"/>
-        <v>-30.249122864337153</v>
+        <f t="shared" si="7"/>
+        <v>-30.248803336254916</v>
       </c>
     </row>
   </sheetData>

--- a/mgo_co/mgo_co_adsorp_energy.xlsx
+++ b/mgo_co/mgo_co_adsorp_energy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hieudinh/Desktop/lee-lab/RIJ/efficient_all_electron_periodic_ftc_method/mgo_co/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15DA943-C645-E54B-83CE-D54832462DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8355F77-14B0-3143-82D6-2A7BE77F6752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54260" yWindow="-2920" windowWidth="31500" windowHeight="26660" xr2:uid="{05099615-AB1D-C64A-A59E-9831400A6593}"/>
+    <workbookView xWindow="65720" yWindow="3560" windowWidth="34560" windowHeight="20160" xr2:uid="{05099615-AB1D-C64A-A59E-9831400A6593}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,15 +497,15 @@
       </c>
       <c r="B2" s="2">
         <f>B3-$E3</f>
-        <v>-8917.8479024376993</v>
+        <v>-8917.8479040800994</v>
       </c>
       <c r="C2" s="2">
         <f t="shared" ref="C2:D2" si="0">C3-$E3</f>
-        <v>-8922.8849656506991</v>
+        <v>-8922.8849739286998</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" si="0"/>
-        <v>-8923.3361154376998</v>
+        <v>-8923.3361170989992</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -524,13 +524,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>-8918.2195400000001</v>
+        <v>-8918.2195416424001</v>
       </c>
       <c r="C3" s="2">
-        <v>-8923.2566032129998</v>
+        <v>-8923.2566114910005</v>
       </c>
       <c r="D3" s="2">
-        <v>-8923.7077530000006</v>
+        <v>-8923.7077546613</v>
       </c>
       <c r="E3" s="2">
         <v>-0.3716375623</v>
@@ -552,15 +552,15 @@
       </c>
       <c r="B4" s="2">
         <f>B2+$E4</f>
-        <v>-8918.0707939471995</v>
+        <v>-8918.0707955895996</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:D4" si="1">C2+$E4</f>
-        <v>-8923.1078571601993</v>
+        <v>-8923.1078654382</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
-        <v>-8923.5590069472</v>
+        <v>-8923.5590086084994</v>
       </c>
       <c r="E4" s="2">
         <v>-0.2228915095</v>
@@ -596,15 +596,15 @@
       </c>
       <c r="B8" s="2">
         <f>B9-$E9</f>
-        <v>-8804.7379825582993</v>
+        <v>-8804.7379838042998</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ref="C8:D8" si="2">C9-$E9</f>
-        <v>-8809.6441755583</v>
+        <v>-8809.6441749073001</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="2"/>
-        <v>-8810.0888045582997</v>
+        <v>-8810.0888060803991</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -612,13 +612,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>-8805.1029849999995</v>
+        <v>-8805.102986246</v>
       </c>
       <c r="C9" s="2">
-        <v>-8810.0091780000002</v>
+        <v>-8810.0091773490003</v>
       </c>
       <c r="D9" s="2">
-        <v>-8810.4538069999999</v>
+        <v>-8810.4538085220993</v>
       </c>
       <c r="E9" s="2">
         <v>-0.36500244170000001</v>
@@ -630,15 +630,15 @@
       </c>
       <c r="B10">
         <f>B8+$E10</f>
-        <v>-8804.955347515599</v>
+        <v>-8804.9553487615995</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:D10" si="3">C8+$E10</f>
-        <v>-8809.8615405155997</v>
+        <v>-8809.8615398645998</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
-        <v>-8810.3061695155993</v>
+        <v>-8810.3061710376987</v>
       </c>
       <c r="E10" s="2">
         <v>-0.21736495729999999</v>
@@ -667,15 +667,15 @@
       </c>
       <c r="B14" s="2">
         <f>B15-$E15</f>
-        <v>-113.104289401101</v>
+        <v>-113.104289741101</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ref="C14:D14" si="4">C15-$E15</f>
-        <v>-113.23476790110099</v>
+        <v>-113.23476803400099</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="4"/>
-        <v>-113.24131400110099</v>
+        <v>-113.24131414370099</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -683,13 +683,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="2">
-        <v>-113.10470220000001</v>
+        <v>-113.10470254000001</v>
       </c>
       <c r="C15" s="2">
-        <v>-113.2351807</v>
+        <v>-113.2351808329</v>
       </c>
       <c r="D15" s="2">
-        <v>-113.2417268</v>
+        <v>-113.2417269426</v>
       </c>
       <c r="E15" s="2">
         <v>-4.1279889900000001E-4</v>
@@ -701,15 +701,15 @@
       </c>
       <c r="B16">
         <f>B14+$E16</f>
-        <v>-113.10429167245532</v>
+        <v>-113.10429201245532</v>
       </c>
       <c r="C16">
         <f t="shared" ref="C16:D16" si="5">C14+$E16</f>
-        <v>-113.23477017245531</v>
+        <v>-113.23477030535531</v>
       </c>
       <c r="D16">
         <f t="shared" si="5"/>
-        <v>-113.24131627245531</v>
+        <v>-113.24131641505531</v>
       </c>
       <c r="E16" s="2">
         <v>-2.2713543199999999E-6</v>
@@ -743,15 +743,15 @@
       </c>
       <c r="B20">
         <f>(B3-B9-B15)*$B18</f>
-        <v>-31.11952640134259</v>
+        <v>-31.119674478566111</v>
       </c>
       <c r="C20">
         <f t="shared" ref="C20:D20" si="6">(C3-C9-C15)*$B18</f>
-        <v>-32.147968880414965</v>
+        <v>-32.171063042581963</v>
       </c>
       <c r="D20">
         <f t="shared" si="6"/>
-        <v>-32.081509601913588</v>
+        <v>-32.081500675166211</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -760,15 +760,15 @@
       </c>
       <c r="B21">
         <f>(B4-B10-B16)*$B18</f>
-        <v>-29.286820135683918</v>
+        <v>-29.286968212907439</v>
       </c>
       <c r="C21">
         <f t="shared" ref="C21:D21" si="7">(C4-C10-C16)*$B18</f>
-        <v>-30.315262614756293</v>
+        <v>-30.338356776923291</v>
       </c>
       <c r="D21">
         <f t="shared" si="7"/>
-        <v>-30.248803336254916</v>
+        <v>-30.248794409507539</v>
       </c>
     </row>
   </sheetData>
